--- a/For Graph/Mohanlal.xlsx
+++ b/For Graph/Mohanlal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AJAYMON\AJAY\Programming\Rough\For Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B597F67-F75A-46DD-A523-D0FAF7A1708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777E3F0-E199-439D-9A39-2079B630FC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FBD4245-F6C3-4FF2-A13D-A30BCFBEB342}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Films in Malayalam_edit_" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Films in Malayalam_edit_'!$A$1:$B$340</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Films in Malayalam_edit_'!$B$1:$C$333</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Manjil Virinja Pookkal</t>
   </si>
   <si>
@@ -1048,25 +1045,10 @@
     <t>12th Man</t>
   </si>
   <si>
-    <t>Alone</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>Barroz: Guardian of D'Gama's Treasure</t>
-  </si>
-  <si>
-    <t>Olavum theeravum</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Untitled Vivek film</t>
-  </si>
-  <si>
-    <t>L2: Empuraan</t>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t>Movie Name</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1084,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,8 +1106,9 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{05925056-579A-4F53-85DD-212CA8A7AE8D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="7" unboundColumnsLeft="1">
+    <queryTableFields count="3">
+      <queryTableField id="6" dataBound="0" tableColumnId="3"/>
       <queryTableField id="1" name="Year" tableColumnId="1"/>
       <queryTableField id="2" name="Title" tableColumnId="2"/>
     </queryTableFields>
@@ -1138,10 +1122,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32FCBA56-3508-47A6-A94A-F774C2B42D9F}" name="Films_in_Malayalam_edit" displayName="Films_in_Malayalam_edit" ref="A1:B340" tableType="queryTable" totalsRowShown="0" headerRowCellStyle="20% - Accent1" dataCellStyle="20% - Accent1">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32FCBA56-3508-47A6-A94A-F774C2B42D9F}" name="Films_in_Malayalam_edit" displayName="Films_in_Malayalam_edit" ref="A1:C333" tableType="queryTable" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{31919CDA-F327-42BC-9612-69BDC0653CB1}" uniqueName="3" name="Sl No" queryTableFieldId="6" dataCellStyle="Normal"/>
     <tableColumn id="1" xr3:uid="{787F91D9-A18A-4F52-BF59-2E80BC91C504}" uniqueName="1" name="Year" queryTableFieldId="1" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{87106CB6-C16D-4657-B4EA-377FFD04239C}" uniqueName="2" name="Title" queryTableFieldId="2" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{87106CB6-C16D-4657-B4EA-377FFD04239C}" uniqueName="2" name="Movie Name" queryTableFieldId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1444,9 +1429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C897AB-044F-4F44-A0CD-A99AB71F5A77}">
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:C333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1457,2724 +1444,3667 @@
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B2">
         <v>1980</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B3">
         <v>1981</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B4">
         <v>1981</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5">
         <v>1981</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B6">
         <v>1981</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
         <v>1981</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
         <v>1981</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B9">
         <v>1981</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B10">
         <v>1981</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B11">
         <v>1982</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B12">
         <v>1982</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B13">
         <v>1982</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B14">
         <v>1982</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B15">
         <v>1982</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B16">
         <v>1982</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B17">
         <v>1982</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B18">
         <v>1982</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B19">
         <v>1982</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B20">
         <v>1982</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B21">
         <v>1982</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B22">
         <v>1982</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B23">
         <v>1982</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="B24">
         <v>1982</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B25">
         <v>1983</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="B26">
         <v>1983</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B27">
         <v>1983</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="B28">
         <v>1983</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="B29">
         <v>1983</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="B30">
         <v>1983</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="B31">
         <v>1983</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="B32">
         <v>1983</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="B33">
         <v>1983</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="B34">
         <v>1983</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B35">
         <v>1983</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="B36">
         <v>1983</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="B37">
         <v>1983</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="B38">
         <v>1983</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="B39">
         <v>1983</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="B40">
         <v>1983</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="B41">
         <v>1983</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="B42">
         <v>1983</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="B43">
         <v>1983</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="B44">
         <v>1983</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="B45">
         <v>1983</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="B46">
         <v>1983</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="B47">
         <v>1983</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="B48">
         <v>1983</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="B49">
         <v>1983</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="B50">
         <v>1983</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="B51">
         <v>1984</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="B52">
         <v>1984</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="B53">
         <v>1984</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="B54">
         <v>1984</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="B55">
         <v>1984</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="B56">
         <v>1984</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="B57">
         <v>1984</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="B58">
         <v>1984</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="B59">
         <v>1984</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="B60">
         <v>1984</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="B61">
         <v>1984</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="B62">
         <v>1984</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="B63">
         <v>1984</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="B64">
         <v>1984</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="B65">
         <v>1984</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="B66">
         <v>1984</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="B67">
         <v>1984</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="B68">
         <v>1984</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="B69">
         <v>1984</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="B70">
         <v>1984</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="B71">
         <v>1984</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="B72">
         <v>1984</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="B73">
         <v>1984</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="B74">
         <v>1984</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="B75">
         <v>1984</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="B76">
         <v>1985</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="B77">
         <v>1985</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="B78">
         <v>1985</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="B79">
         <v>1985</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="B80">
         <v>1985</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="B81">
         <v>1985</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="B82">
         <v>1985</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="B83">
         <v>1985</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="B84">
         <v>1985</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="B85">
         <v>1985</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="B86">
         <v>1985</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="B87">
         <v>1985</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="B88">
         <v>1985</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="B89">
         <v>1985</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="B90">
         <v>1985</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="B91">
         <v>1985</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="B92">
         <v>1985</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="B93">
         <v>1985</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="B94">
         <v>1985</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="B95">
         <v>1985</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="B96">
         <v>1985</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="B97">
         <v>1985</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="B98">
         <v>1985</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="B99">
         <v>1985</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="B100">
         <v>1985</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="B101">
         <v>1986</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="B102">
         <v>1986</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="B103">
         <v>1986</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="B104">
         <v>1986</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="B105">
         <v>1986</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="B106">
         <v>1986</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="B107">
         <v>1986</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="B108">
         <v>1986</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1986</v>
+      </c>
+      <c r="C109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
         <v>1986</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
         <v>1986</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
         <v>1986</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
         <v>1986</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C113" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
         <v>1986</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C114" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
         <v>1986</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C115" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
         <v>1986</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
         <v>1986</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C117" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
         <v>1986</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C118" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
         <v>1986</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
         <v>1986</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C120" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
         <v>1986</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C121" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
         <v>1986</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C122" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
         <v>1986</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
         <v>1986</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
         <v>1986</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
         <v>1986</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
         <v>1986</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
         <v>1986</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C128" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
         <v>1986</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C129" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
         <v>1986</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
         <v>1986</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C131" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
         <v>1986</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
         <v>1986</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
         <v>1986</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C134" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>1986</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1987</v>
+      </c>
+      <c r="C135" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
         <v>1987</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
         <v>1987</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
         <v>1987</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
         <v>1987</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
         <v>1987</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
         <v>1987</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
         <v>1987</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C142" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
         <v>1987</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C143" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
         <v>1987</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C144" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
         <v>1987</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
         <v>1987</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
         <v>1987</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C147" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>1987</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1988</v>
+      </c>
+      <c r="C148" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
         <v>1988</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
         <v>1988</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C150" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
         <v>1988</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
         <v>1988</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C152" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
         <v>1988</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
         <v>1988</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C154" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
         <v>1988</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C155" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
         <v>1988</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C156" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
         <v>1988</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C157" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
         <v>1988</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
         <v>1988</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C159" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>1988</v>
-      </c>
-      <c r="B159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1989</v>
+      </c>
+      <c r="C160" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
         <v>1989</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
         <v>1989</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C162" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
         <v>1989</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C163" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
         <v>1989</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C164" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
         <v>1989</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C165" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
         <v>1989</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C166" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
         <v>1989</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C167" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
         <v>1989</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C168" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
         <v>1989</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>1989</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1990</v>
+      </c>
+      <c r="C170" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
         <v>1990</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C171" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
         <v>1990</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C172" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
         <v>1990</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C173" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <v>1990</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C174" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
         <v>1990</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C175" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
         <v>1990</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C176" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
         <v>1990</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C177" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
         <v>1990</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C178" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
         <v>1990</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C179" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="B180">
         <v>1990</v>
       </c>
-      <c r="B179" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>1990</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="B181">
         <v>1991</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="B182">
         <v>1991</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="B183">
         <v>1991</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="B184">
         <v>1991</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="B185">
         <v>1991</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="B186">
         <v>1991</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="B187">
         <v>1991</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="B188">
         <v>1991</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="B189">
         <v>1991</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="B190">
         <v>1992</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="B191">
         <v>1992</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="B192">
         <v>1992</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="B193">
         <v>1992</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="B194">
         <v>1992</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="B195">
         <v>1992</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="B196">
         <v>1992</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="B197">
         <v>1992</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="B198">
         <v>1992</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="B199">
         <v>1993</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="B200">
         <v>1993</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="B201">
         <v>1993</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="B202">
         <v>1993</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="B203">
         <v>1993</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="B204">
         <v>1993</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="B205">
         <v>1993</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="B206">
         <v>1993</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="B207">
         <v>1994</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="B208">
         <v>1994</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="B209">
         <v>1994</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="B210">
         <v>1994</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="B211">
         <v>1994</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="B212">
         <v>1995</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="B213">
         <v>1995</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="B214">
         <v>1995</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="B215">
         <v>1995</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="B216">
         <v>1995</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="B217">
         <v>1996</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="B218">
         <v>1996</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="B219">
         <v>1997</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="B220">
         <v>1997</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="B221">
         <v>1997</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="B222">
         <v>1997</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="B223">
         <v>1997</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="B224">
         <v>1998</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225">
+      <c r="B225">
         <v>1998</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226">
+      <c r="B226">
         <v>1998</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227">
+      <c r="B227">
         <v>1998</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228">
+      <c r="B228">
         <v>1998</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="B229">
         <v>1999</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="B230">
         <v>1999</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="B231">
         <v>1999</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="B232">
         <v>2000</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="B233">
         <v>2000</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="B234">
         <v>2000</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="B235">
         <v>2000</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="B236">
         <v>2001</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="B237">
         <v>2001</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="B238">
         <v>2001</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239">
+      <c r="B239">
         <v>2001</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240">
+      <c r="B240">
         <v>2001</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="B241">
         <v>2002</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="B242">
         <v>2002</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="B243">
         <v>2002</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="B244">
         <v>2003</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="B245">
         <v>2003</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246">
+      <c r="B246">
         <v>2003</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247">
+      <c r="B247">
         <v>2003</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248">
+      <c r="B248">
         <v>2003</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249">
+      <c r="B249">
         <v>2004</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250">
+      <c r="B250">
         <v>2004</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251">
+      <c r="B251">
         <v>2004</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
         <v>251</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252">
+      <c r="B252">
         <v>2004</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253">
+      <c r="B253">
         <v>2004</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254">
+      <c r="B254">
         <v>2005</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255">
+      <c r="B255">
         <v>2005</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256">
+      <c r="B256">
         <v>2005</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="B257">
         <v>2005</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
         <v>257</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="B258">
         <v>2005</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
         <v>258</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="B259">
         <v>2006</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
         <v>259</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260">
+      <c r="B260">
         <v>2006</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="B261">
         <v>2006</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262">
+      <c r="B262">
         <v>2006</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
         <v>262</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="B263">
         <v>2006</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
         <v>263</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264">
+      <c r="B264">
         <v>2006</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
         <v>264</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265">
+      <c r="B265">
         <v>2006</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266">
+      <c r="B266">
         <v>2007</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
         <v>266</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267">
+      <c r="B267">
         <v>2007</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
         <v>267</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268">
+      <c r="B268">
         <v>2007</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
         <v>268</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269">
+      <c r="B269">
         <v>2007</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
         <v>269</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270">
+      <c r="B270">
         <v>2007</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271">
+      <c r="B271">
         <v>2007</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
         <v>271</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="B272">
         <v>2008</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
         <v>272</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="B273">
         <v>2008</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
         <v>273</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="B274">
         <v>2008</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275">
+      <c r="B275">
         <v>2008</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
         <v>275</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
+      <c r="B276">
         <v>2008</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
         <v>276</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277">
+      <c r="B277">
         <v>2008</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
         <v>277</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278">
+      <c r="B278">
         <v>2008</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
         <v>278</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="B279">
         <v>2008</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
         <v>279</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="B280">
         <v>2009</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="B281">
         <v>2009</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
         <v>281</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="B282">
         <v>2009</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
         <v>282</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="B283">
         <v>2009</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
         <v>283</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="B284">
         <v>2009</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
         <v>284</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285">
+      <c r="B285">
         <v>2009</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="B286">
         <v>2010</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
         <v>286</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="B287">
         <v>2010</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
         <v>287</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="B288">
         <v>2010</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
         <v>288</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289">
+      <c r="B289">
         <v>2010</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
         <v>289</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290">
+      <c r="B290">
         <v>2010</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291">
+      <c r="B291">
         <v>2011</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
         <v>291</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292">
+      <c r="B292">
         <v>2011</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293">
+      <c r="B293">
         <v>2011</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
         <v>293</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294">
+      <c r="B294">
         <v>2011</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
         <v>294</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295">
+      <c r="B295">
         <v>2011</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
         <v>295</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296">
+      <c r="B296">
         <v>2012</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297">
+      <c r="B297">
         <v>2012</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
         <v>297</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298">
+      <c r="B298">
         <v>2012</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299">
+      <c r="B299">
         <v>2012</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
         <v>299</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300">
+      <c r="B300">
         <v>2012</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301">
+      <c r="B301">
         <v>2013</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
         <v>301</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302">
+      <c r="B302">
         <v>2013</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
         <v>302</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303">
+      <c r="B303">
         <v>2013</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
         <v>303</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304">
+      <c r="B304">
         <v>2013</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
         <v>304</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305">
+      <c r="B305">
         <v>2013</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
         <v>305</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306">
+      <c r="B306">
         <v>2013</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
         <v>306</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307">
+      <c r="B307">
         <v>2014</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
         <v>307</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308">
+      <c r="B308">
         <v>2014</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
         <v>308</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309">
+      <c r="B309">
         <v>2014</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
         <v>309</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310">
+      <c r="B310">
         <v>2015</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
         <v>310</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311">
+      <c r="B311">
         <v>2015</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
         <v>311</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312">
+      <c r="B312">
         <v>2015</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
         <v>312</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313">
+      <c r="B313">
         <v>2015</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
         <v>313</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314">
+      <c r="B314">
         <v>2015</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
         <v>314</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315">
+      <c r="B315">
         <v>2016</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
         <v>315</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316">
+      <c r="B316">
         <v>2016</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
         <v>316</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317">
+      <c r="B317">
         <v>2017</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
         <v>317</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318">
+      <c r="B318">
         <v>2017</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
         <v>318</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319">
+      <c r="B319">
         <v>2017</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
         <v>319</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320">
+      <c r="B320">
         <v>2017</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321">
+      <c r="B321">
         <v>2018</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
         <v>321</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322">
+      <c r="B322">
         <v>2018</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
         <v>322</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323">
+      <c r="B323">
         <v>2018</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
         <v>323</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324">
+      <c r="B324">
         <v>2018</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
         <v>324</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325">
+      <c r="B325">
         <v>2018</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326">
+      <c r="B326">
         <v>2019</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
         <v>326</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327">
+      <c r="B327">
         <v>2019</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
         <v>327</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328">
+      <c r="B328">
         <v>2020</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
         <v>328</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329">
+      <c r="B329">
         <v>2021</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
         <v>329</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330">
+      <c r="B330">
         <v>2021</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331">
+      <c r="B331">
         <v>2022</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
         <v>331</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332">
+      <c r="B332">
         <v>2022</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
         <v>332</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333">
+      <c r="B333">
         <v>2022</v>
       </c>
-      <c r="B333" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334">
-        <v>2022</v>
-      </c>
-      <c r="B334" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335">
-        <v>2022</v>
-      </c>
-      <c r="B335" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336">
-        <v>2022</v>
-      </c>
-      <c r="B336" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337">
-        <v>2022</v>
-      </c>
-      <c r="B337" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338">
-        <v>2023</v>
-      </c>
-      <c r="B338" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339">
-        <v>2023</v>
-      </c>
-      <c r="B339" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340">
-        <v>2023</v>
-      </c>
-      <c r="B340" t="s">
-        <v>340</v>
+      <c r="C333" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
